--- a/风格.xlsx
+++ b/风格.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1004"/>
+  <dimension ref="A1:Q1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50867,4288 +50867,2970 @@
     </row>
     <row r="952">
       <c r="A952" s="1" t="n">
-        <v>1</v>
+        <v>950</v>
       </c>
       <c r="B952" t="n">
         <v>20240103</v>
       </c>
-      <c r="C952" t="inlineStr">
+      <c r="C952" t="n">
+        <v>4</v>
+      </c>
+      <c r="D952" t="n">
+        <v>4</v>
+      </c>
+      <c r="E952" t="n">
+        <v>4</v>
+      </c>
+      <c r="F952" t="n">
+        <v>4</v>
+      </c>
+      <c r="G952" t="n">
+        <v>2</v>
+      </c>
+      <c r="H952" t="n">
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>1</v>
+      </c>
+      <c r="J952" t="n">
+        <v>2</v>
+      </c>
+      <c r="K952" t="n">
+        <v>1</v>
+      </c>
+      <c r="L952" t="n">
+        <v>2</v>
+      </c>
+      <c r="M952" t="n">
+        <v>3</v>
+      </c>
+      <c r="N952" t="n">
+        <v>3</v>
+      </c>
+      <c r="O952" t="n">
+        <v>4</v>
+      </c>
+      <c r="P952" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" t="n">
+        <v>20240104</v>
+      </c>
+      <c r="C953" t="n">
+        <v>4</v>
+      </c>
+      <c r="D953" t="n">
+        <v>3</v>
+      </c>
+      <c r="E953" t="n">
+        <v>4</v>
+      </c>
+      <c r="F953" t="n">
+        <v>4</v>
+      </c>
+      <c r="G953" t="n">
+        <v>2</v>
+      </c>
+      <c r="H953" t="n">
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>1</v>
+      </c>
+      <c r="J953" t="n">
+        <v>3</v>
+      </c>
+      <c r="K953" t="n">
+        <v>1</v>
+      </c>
+      <c r="L953" t="n">
+        <v>2</v>
+      </c>
+      <c r="M953" t="n">
+        <v>4</v>
+      </c>
+      <c r="N953" t="n">
+        <v>3</v>
+      </c>
+      <c r="O953" t="n">
+        <v>4</v>
+      </c>
+      <c r="P953" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" t="n">
+        <v>20240105</v>
+      </c>
+      <c r="C954" t="n">
+        <v>4</v>
+      </c>
+      <c r="D954" t="n">
+        <v>4</v>
+      </c>
+      <c r="E954" t="n">
+        <v>4</v>
+      </c>
+      <c r="F954" t="n">
+        <v>4</v>
+      </c>
+      <c r="G954" t="n">
+        <v>2</v>
+      </c>
+      <c r="H954" t="n">
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>2</v>
+      </c>
+      <c r="J954" t="n">
+        <v>3</v>
+      </c>
+      <c r="K954" t="n">
+        <v>3</v>
+      </c>
+      <c r="L954" t="n">
+        <v>3</v>
+      </c>
+      <c r="M954" t="n">
+        <v>2</v>
+      </c>
+      <c r="N954" t="n">
+        <v>1</v>
+      </c>
+      <c r="O954" t="n">
+        <v>4</v>
+      </c>
+      <c r="P954" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" t="n">
+        <v>20240108</v>
+      </c>
+      <c r="C955" t="n">
+        <v>4</v>
+      </c>
+      <c r="D955" t="n">
+        <v>4</v>
+      </c>
+      <c r="E955" t="n">
+        <v>4</v>
+      </c>
+      <c r="F955" t="n">
+        <v>3</v>
+      </c>
+      <c r="G955" t="n">
+        <v>2</v>
+      </c>
+      <c r="H955" t="n">
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>4</v>
+      </c>
+      <c r="J955" t="n">
+        <v>2</v>
+      </c>
+      <c r="K955" t="n">
+        <v>3</v>
+      </c>
+      <c r="L955" t="n">
+        <v>3</v>
+      </c>
+      <c r="M955" t="n">
+        <v>1</v>
+      </c>
+      <c r="N955" t="n">
+        <v>1</v>
+      </c>
+      <c r="O955" t="n">
+        <v>4</v>
+      </c>
+      <c r="P955" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" t="n">
+        <v>20240109</v>
+      </c>
+      <c r="C956" t="n">
+        <v>3</v>
+      </c>
+      <c r="D956" t="n">
+        <v>4</v>
+      </c>
+      <c r="E956" t="n">
+        <v>4</v>
+      </c>
+      <c r="F956" t="n">
+        <v>4</v>
+      </c>
+      <c r="G956" t="n">
+        <v>1</v>
+      </c>
+      <c r="H956" t="n">
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>3</v>
+      </c>
+      <c r="J956" t="n">
+        <v>2</v>
+      </c>
+      <c r="K956" t="n">
+        <v>3</v>
+      </c>
+      <c r="L956" t="n">
+        <v>4</v>
+      </c>
+      <c r="M956" t="n">
+        <v>1</v>
+      </c>
+      <c r="N956" t="n">
+        <v>2</v>
+      </c>
+      <c r="O956" t="n">
+        <v>4</v>
+      </c>
+      <c r="P956" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" t="n">
+        <v>20240110</v>
+      </c>
+      <c r="C957" t="n">
+        <v>3</v>
+      </c>
+      <c r="D957" t="n">
+        <v>3</v>
+      </c>
+      <c r="E957" t="n">
+        <v>4</v>
+      </c>
+      <c r="F957" t="n">
+        <v>4</v>
+      </c>
+      <c r="G957" t="n">
+        <v>1</v>
+      </c>
+      <c r="H957" t="n">
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>2</v>
+      </c>
+      <c r="J957" t="n">
+        <v>4</v>
+      </c>
+      <c r="K957" t="n">
+        <v>4</v>
+      </c>
+      <c r="L957" t="n">
+        <v>4</v>
+      </c>
+      <c r="M957" t="n">
+        <v>1</v>
+      </c>
+      <c r="N957" t="n">
+        <v>2</v>
+      </c>
+      <c r="O957" t="n">
+        <v>4</v>
+      </c>
+      <c r="P957" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" t="n">
+        <v>20240111</v>
+      </c>
+      <c r="C958" t="n">
+        <v>4</v>
+      </c>
+      <c r="D958" t="n">
+        <v>1</v>
+      </c>
+      <c r="E958" t="n">
+        <v>4</v>
+      </c>
+      <c r="F958" t="n">
+        <v>4</v>
+      </c>
+      <c r="G958" t="n">
+        <v>2</v>
+      </c>
+      <c r="H958" t="n">
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>2</v>
+      </c>
+      <c r="J958" t="n">
+        <v>4</v>
+      </c>
+      <c r="K958" t="n">
+        <v>3</v>
+      </c>
+      <c r="L958" t="n">
+        <v>4</v>
+      </c>
+      <c r="M958" t="n">
+        <v>2</v>
+      </c>
+      <c r="N958" t="n">
+        <v>1</v>
+      </c>
+      <c r="O958" t="n">
+        <v>4</v>
+      </c>
+      <c r="P958" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="n">
+        <v>20240112</v>
+      </c>
+      <c r="C959" t="n">
+        <v>4</v>
+      </c>
+      <c r="D959" t="n">
+        <v>4</v>
+      </c>
+      <c r="E959" t="n">
+        <v>4</v>
+      </c>
+      <c r="F959" t="n">
+        <v>3</v>
+      </c>
+      <c r="G959" t="n">
+        <v>2</v>
+      </c>
+      <c r="H959" t="n">
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>1</v>
+      </c>
+      <c r="J959" t="n">
+        <v>4</v>
+      </c>
+      <c r="K959" t="n">
+        <v>3</v>
+      </c>
+      <c r="L959" t="n">
+        <v>4</v>
+      </c>
+      <c r="M959" t="n">
+        <v>3</v>
+      </c>
+      <c r="N959" t="n">
+        <v>1</v>
+      </c>
+      <c r="O959" t="n">
+        <v>4</v>
+      </c>
+      <c r="P959" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="n">
+        <v>20240115</v>
+      </c>
+      <c r="C960" t="n">
+        <v>2</v>
+      </c>
+      <c r="D960" t="n">
+        <v>2</v>
+      </c>
+      <c r="E960" t="n">
+        <v>4</v>
+      </c>
+      <c r="F960" t="n">
+        <v>4</v>
+      </c>
+      <c r="G960" t="n">
+        <v>1</v>
+      </c>
+      <c r="H960" t="n">
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>3</v>
+      </c>
+      <c r="J960" t="n">
+        <v>3</v>
+      </c>
+      <c r="K960" t="n">
+        <v>4</v>
+      </c>
+      <c r="L960" t="n">
+        <v>4</v>
+      </c>
+      <c r="M960" t="n">
+        <v>1</v>
+      </c>
+      <c r="N960" t="n">
+        <v>2</v>
+      </c>
+      <c r="O960" t="n">
+        <v>4</v>
+      </c>
+      <c r="P960" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="n">
+        <v>20240116</v>
+      </c>
+      <c r="C961" t="n">
+        <v>3</v>
+      </c>
+      <c r="D961" t="n">
+        <v>1</v>
+      </c>
+      <c r="E961" t="n">
+        <v>4</v>
+      </c>
+      <c r="F961" t="n">
+        <v>4</v>
+      </c>
+      <c r="G961" t="n">
+        <v>1</v>
+      </c>
+      <c r="H961" t="n">
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>2</v>
+      </c>
+      <c r="J961" t="n">
+        <v>2</v>
+      </c>
+      <c r="K961" t="n">
+        <v>3</v>
+      </c>
+      <c r="L961" t="n">
+        <v>4</v>
+      </c>
+      <c r="M961" t="n">
+        <v>3</v>
+      </c>
+      <c r="N961" t="n">
+        <v>2</v>
+      </c>
+      <c r="O961" t="n">
+        <v>4</v>
+      </c>
+      <c r="P961" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="n">
+        <v>20240117</v>
+      </c>
+      <c r="C962" t="n">
+        <v>3</v>
+      </c>
+      <c r="D962" t="n">
+        <v>3</v>
+      </c>
+      <c r="E962" t="n">
+        <v>4</v>
+      </c>
+      <c r="F962" t="n">
+        <v>4</v>
+      </c>
+      <c r="G962" t="n">
+        <v>1</v>
+      </c>
+      <c r="H962" t="n">
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>1</v>
+      </c>
+      <c r="J962" t="n">
+        <v>2</v>
+      </c>
+      <c r="K962" t="n">
+        <v>4</v>
+      </c>
+      <c r="L962" t="n">
+        <v>4</v>
+      </c>
+      <c r="M962" t="n">
+        <v>3</v>
+      </c>
+      <c r="N962" t="n">
+        <v>2</v>
+      </c>
+      <c r="O962" t="n">
+        <v>4</v>
+      </c>
+      <c r="P962" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="n">
+        <v>20240118</v>
+      </c>
+      <c r="C963" t="n">
+        <v>4</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1</v>
+      </c>
+      <c r="E963" t="n">
+        <v>4</v>
+      </c>
+      <c r="F963" t="n">
+        <v>4</v>
+      </c>
+      <c r="G963" t="n">
+        <v>1</v>
+      </c>
+      <c r="H963" t="n">
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>2</v>
+      </c>
+      <c r="J963" t="n">
+        <v>2</v>
+      </c>
+      <c r="K963" t="n">
+        <v>3</v>
+      </c>
+      <c r="L963" t="n">
+        <v>4</v>
+      </c>
+      <c r="M963" t="n">
+        <v>3</v>
+      </c>
+      <c r="N963" t="n">
+        <v>2</v>
+      </c>
+      <c r="O963" t="n">
+        <v>4</v>
+      </c>
+      <c r="P963" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="n">
+        <v>20240119</v>
+      </c>
+      <c r="C964" t="n">
+        <v>2</v>
+      </c>
+      <c r="D964" t="n">
+        <v>4</v>
+      </c>
+      <c r="E964" t="n">
+        <v>3</v>
+      </c>
+      <c r="F964" t="n">
+        <v>4</v>
+      </c>
+      <c r="G964" t="n">
+        <v>1</v>
+      </c>
+      <c r="H964" t="n">
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>1</v>
+      </c>
+      <c r="J964" t="n">
+        <v>2</v>
+      </c>
+      <c r="K964" t="n">
+        <v>2</v>
+      </c>
+      <c r="L964" t="n">
+        <v>4</v>
+      </c>
+      <c r="M964" t="n">
+        <v>3</v>
+      </c>
+      <c r="N964" t="n">
+        <v>3</v>
+      </c>
+      <c r="O964" t="n">
+        <v>4</v>
+      </c>
+      <c r="P964" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="n">
+        <v>20240122</v>
+      </c>
+      <c r="C965" t="n">
+        <v>4</v>
+      </c>
+      <c r="D965" t="n">
+        <v>3</v>
+      </c>
+      <c r="E965" t="n">
+        <v>4</v>
+      </c>
+      <c r="F965" t="n">
+        <v>4</v>
+      </c>
+      <c r="G965" t="n">
+        <v>1</v>
+      </c>
+      <c r="H965" t="n">
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>2</v>
+      </c>
+      <c r="J965" t="n">
+        <v>2</v>
+      </c>
+      <c r="K965" t="n">
+        <v>1</v>
+      </c>
+      <c r="L965" t="n">
+        <v>4</v>
+      </c>
+      <c r="M965" t="n">
+        <v>3</v>
+      </c>
+      <c r="N965" t="n">
+        <v>2</v>
+      </c>
+      <c r="O965" t="n">
+        <v>3</v>
+      </c>
+      <c r="P965" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="n">
+        <v>20240123</v>
+      </c>
+      <c r="C966" t="n">
+        <v>2</v>
+      </c>
+      <c r="D966" t="n">
+        <v>2</v>
+      </c>
+      <c r="E966" t="n">
+        <v>4</v>
+      </c>
+      <c r="F966" t="n">
+        <v>4</v>
+      </c>
+      <c r="G966" t="n">
+        <v>1</v>
+      </c>
+      <c r="H966" t="n">
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>3</v>
+      </c>
+      <c r="J966" t="n">
+        <v>3</v>
+      </c>
+      <c r="K966" t="n">
+        <v>1</v>
+      </c>
+      <c r="L966" t="n">
+        <v>4</v>
+      </c>
+      <c r="M966" t="n">
+        <v>2</v>
+      </c>
+      <c r="N966" t="n">
+        <v>3</v>
+      </c>
+      <c r="O966" t="n">
+        <v>4</v>
+      </c>
+      <c r="P966" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="n">
+        <v>20240124</v>
+      </c>
+      <c r="C967" t="n">
+        <v>2</v>
+      </c>
+      <c r="D967" t="n">
+        <v>3</v>
+      </c>
+      <c r="E967" t="n">
+        <v>4</v>
+      </c>
+      <c r="F967" t="n">
+        <v>4</v>
+      </c>
+      <c r="G967" t="n">
+        <v>1</v>
+      </c>
+      <c r="H967" t="n">
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>4</v>
+      </c>
+      <c r="J967" t="n">
+        <v>2</v>
+      </c>
+      <c r="K967" t="n">
+        <v>1</v>
+      </c>
+      <c r="L967" t="n">
+        <v>4</v>
+      </c>
+      <c r="M967" t="n">
+        <v>2</v>
+      </c>
+      <c r="N967" t="n">
+        <v>3</v>
+      </c>
+      <c r="O967" t="n">
+        <v>3</v>
+      </c>
+      <c r="P967" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="n">
+        <v>20240125</v>
+      </c>
+      <c r="C968" t="n">
+        <v>2</v>
+      </c>
+      <c r="D968" t="n">
+        <v>2</v>
+      </c>
+      <c r="E968" t="n">
+        <v>4</v>
+      </c>
+      <c r="F968" t="n">
+        <v>4</v>
+      </c>
+      <c r="G968" t="n">
+        <v>1</v>
+      </c>
+      <c r="H968" t="n">
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>4</v>
+      </c>
+      <c r="J968" t="n">
+        <v>2</v>
+      </c>
+      <c r="K968" t="n">
+        <v>1</v>
+      </c>
+      <c r="L968" t="n">
+        <v>4</v>
+      </c>
+      <c r="M968" t="n">
+        <v>3</v>
+      </c>
+      <c r="N968" t="n">
+        <v>3</v>
+      </c>
+      <c r="O968" t="n">
+        <v>4</v>
+      </c>
+      <c r="P968" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="n">
+        <v>20240126</v>
+      </c>
+      <c r="C969" t="n">
+        <v>3</v>
+      </c>
+      <c r="D969" t="n">
+        <v>4</v>
+      </c>
+      <c r="E969" t="n">
+        <v>4</v>
+      </c>
+      <c r="F969" t="n">
+        <v>4</v>
+      </c>
+      <c r="G969" t="n">
+        <v>1</v>
+      </c>
+      <c r="H969" t="n">
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>3</v>
+      </c>
+      <c r="J969" t="n">
+        <v>2</v>
+      </c>
+      <c r="K969" t="n">
+        <v>1</v>
+      </c>
+      <c r="L969" t="n">
+        <v>4</v>
+      </c>
+      <c r="M969" t="n">
+        <v>2</v>
+      </c>
+      <c r="N969" t="n">
+        <v>2</v>
+      </c>
+      <c r="O969" t="n">
+        <v>4</v>
+      </c>
+      <c r="P969" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="n">
+        <v>20240129</v>
+      </c>
+      <c r="C970" t="n">
+        <v>4</v>
+      </c>
+      <c r="D970" t="n">
+        <v>4</v>
+      </c>
+      <c r="E970" t="n">
+        <v>4</v>
+      </c>
+      <c r="F970" t="n">
+        <v>4</v>
+      </c>
+      <c r="G970" t="n">
+        <v>1</v>
+      </c>
+      <c r="H970" t="n">
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>2</v>
+      </c>
+      <c r="J970" t="n">
+        <v>1</v>
+      </c>
+      <c r="K970" t="n">
+        <v>2</v>
+      </c>
+      <c r="L970" t="n">
+        <v>4</v>
+      </c>
+      <c r="M970" t="n">
+        <v>2</v>
+      </c>
+      <c r="N970" t="n">
+        <v>3</v>
+      </c>
+      <c r="O970" t="n">
+        <v>3</v>
+      </c>
+      <c r="P970" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="n">
+        <v>20240130</v>
+      </c>
+      <c r="C971" t="n">
+        <v>3</v>
+      </c>
+      <c r="D971" t="n">
+        <v>4</v>
+      </c>
+      <c r="E971" t="n">
+        <v>4</v>
+      </c>
+      <c r="F971" t="n">
+        <v>4</v>
+      </c>
+      <c r="G971" t="n">
+        <v>1</v>
+      </c>
+      <c r="H971" t="n">
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>2</v>
+      </c>
+      <c r="J971" t="n">
+        <v>2</v>
+      </c>
+      <c r="K971" t="n">
+        <v>1</v>
+      </c>
+      <c r="L971" t="n">
+        <v>4</v>
+      </c>
+      <c r="M971" t="n">
+        <v>3</v>
+      </c>
+      <c r="N971" t="n">
+        <v>2</v>
+      </c>
+      <c r="O971" t="n">
+        <v>4</v>
+      </c>
+      <c r="P971" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="n">
+        <v>20240131</v>
+      </c>
+      <c r="C972" t="n">
+        <v>4</v>
+      </c>
+      <c r="D972" t="n">
+        <v>3</v>
+      </c>
+      <c r="E972" t="n">
+        <v>4</v>
+      </c>
+      <c r="F972" t="n">
+        <v>4</v>
+      </c>
+      <c r="G972" t="n">
+        <v>1</v>
+      </c>
+      <c r="H972" t="n">
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>2</v>
+      </c>
+      <c r="J972" t="n">
+        <v>2</v>
+      </c>
+      <c r="K972" t="n">
+        <v>1</v>
+      </c>
+      <c r="L972" t="n">
+        <v>4</v>
+      </c>
+      <c r="M972" t="n">
+        <v>3</v>
+      </c>
+      <c r="N972" t="n">
+        <v>2</v>
+      </c>
+      <c r="O972" t="n">
+        <v>4</v>
+      </c>
+      <c r="P972" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="n">
+        <v>20240201</v>
+      </c>
+      <c r="C973" t="n">
+        <v>4</v>
+      </c>
+      <c r="D973" t="n">
+        <v>2</v>
+      </c>
+      <c r="E973" t="n">
+        <v>4</v>
+      </c>
+      <c r="F973" t="n">
+        <v>3</v>
+      </c>
+      <c r="G973" t="n">
+        <v>1</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2</v>
+      </c>
+      <c r="I973" t="n">
+        <v>4</v>
+      </c>
+      <c r="J973" t="n">
+        <v>1</v>
+      </c>
+      <c r="K973" t="n">
+        <v>1</v>
+      </c>
+      <c r="L973" t="n">
+        <v>4</v>
+      </c>
+      <c r="M973" t="n">
+        <v>3</v>
+      </c>
+      <c r="N973" t="n">
+        <v>2</v>
+      </c>
+      <c r="O973" t="n">
+        <v>3</v>
+      </c>
+      <c r="P973" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="n">
+        <v>20240202</v>
+      </c>
+      <c r="C974" t="n">
+        <v>4</v>
+      </c>
+      <c r="D974" t="n">
+        <v>4</v>
+      </c>
+      <c r="E974" t="n">
+        <v>4</v>
+      </c>
+      <c r="F974" t="n">
+        <v>3</v>
+      </c>
+      <c r="G974" t="n">
+        <v>1</v>
+      </c>
+      <c r="H974" t="n">
+        <v>2</v>
+      </c>
+      <c r="I974" t="n">
+        <v>4</v>
+      </c>
+      <c r="J974" t="n">
+        <v>1</v>
+      </c>
+      <c r="K974" t="n">
+        <v>1</v>
+      </c>
+      <c r="L974" t="n">
+        <v>4</v>
+      </c>
+      <c r="M974" t="n">
+        <v>2</v>
+      </c>
+      <c r="N974" t="n">
+        <v>2</v>
+      </c>
+      <c r="O974" t="n">
+        <v>3</v>
+      </c>
+      <c r="P974" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" t="n">
+        <v>20240205</v>
+      </c>
+      <c r="C975" t="n">
+        <v>2</v>
+      </c>
+      <c r="D975" t="n">
+        <v>4</v>
+      </c>
+      <c r="E975" t="n">
+        <v>3</v>
+      </c>
+      <c r="F975" t="n">
+        <v>3</v>
+      </c>
+      <c r="G975" t="n">
+        <v>1</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2</v>
+      </c>
+      <c r="I975" t="n">
+        <v>4</v>
+      </c>
+      <c r="J975" t="n">
+        <v>1</v>
+      </c>
+      <c r="K975" t="n">
+        <v>1</v>
+      </c>
+      <c r="L975" t="n">
+        <v>4</v>
+      </c>
+      <c r="M975" t="n">
+        <v>4</v>
+      </c>
+      <c r="N975" t="n">
+        <v>2</v>
+      </c>
+      <c r="O975" t="n">
+        <v>3</v>
+      </c>
+      <c r="P975" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="n">
+        <v>20240206</v>
+      </c>
+      <c r="C976" t="n">
+        <v>3</v>
+      </c>
+      <c r="D976" t="n">
+        <v>3</v>
+      </c>
+      <c r="E976" t="n">
+        <v>4</v>
+      </c>
+      <c r="F976" t="n">
+        <v>3</v>
+      </c>
+      <c r="G976" t="n">
+        <v>1</v>
+      </c>
+      <c r="H976" t="n">
+        <v>2</v>
+      </c>
+      <c r="I976" t="n">
+        <v>4</v>
+      </c>
+      <c r="J976" t="n">
+        <v>1</v>
+      </c>
+      <c r="K976" t="n">
+        <v>1</v>
+      </c>
+      <c r="L976" t="n">
+        <v>4</v>
+      </c>
+      <c r="M976" t="n">
+        <v>2</v>
+      </c>
+      <c r="N976" t="n">
+        <v>2</v>
+      </c>
+      <c r="O976" t="n">
+        <v>4</v>
+      </c>
+      <c r="P976" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="n">
+        <v>20240207</v>
+      </c>
+      <c r="C977" t="n">
+        <v>4</v>
+      </c>
+      <c r="D977" t="n">
+        <v>4</v>
+      </c>
+      <c r="E977" t="n">
+        <v>3</v>
+      </c>
+      <c r="F977" t="n">
+        <v>3</v>
+      </c>
+      <c r="G977" t="n">
+        <v>1</v>
+      </c>
+      <c r="H977" t="n">
+        <v>2</v>
+      </c>
+      <c r="I977" t="n">
+        <v>4</v>
+      </c>
+      <c r="J977" t="n">
+        <v>1</v>
+      </c>
+      <c r="K977" t="n">
+        <v>1</v>
+      </c>
+      <c r="L977" t="n">
+        <v>4</v>
+      </c>
+      <c r="M977" t="n">
+        <v>3</v>
+      </c>
+      <c r="N977" t="n">
+        <v>2</v>
+      </c>
+      <c r="O977" t="n">
+        <v>4</v>
+      </c>
+      <c r="P977" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="n">
+        <v>20240208</v>
+      </c>
+      <c r="C978" t="n">
+        <v>4</v>
+      </c>
+      <c r="D978" t="n">
+        <v>2</v>
+      </c>
+      <c r="E978" t="n">
+        <v>4</v>
+      </c>
+      <c r="F978" t="n">
+        <v>4</v>
+      </c>
+      <c r="G978" t="n">
+        <v>1</v>
+      </c>
+      <c r="H978" t="n">
+        <v>2</v>
+      </c>
+      <c r="I978" t="n">
+        <v>3</v>
+      </c>
+      <c r="J978" t="n">
+        <v>1</v>
+      </c>
+      <c r="K978" t="n">
+        <v>1</v>
+      </c>
+      <c r="L978" t="n">
+        <v>4</v>
+      </c>
+      <c r="M978" t="n">
+        <v>3</v>
+      </c>
+      <c r="N978" t="n">
+        <v>2</v>
+      </c>
+      <c r="O978" t="n">
+        <v>4</v>
+      </c>
+      <c r="P978" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="n">
+        <v>20240219</v>
+      </c>
+      <c r="C979" t="n">
+        <v>3</v>
+      </c>
+      <c r="D979" t="n">
+        <v>2</v>
+      </c>
+      <c r="E979" t="n">
+        <v>4</v>
+      </c>
+      <c r="F979" t="n">
+        <v>2</v>
+      </c>
+      <c r="G979" t="n">
+        <v>1</v>
+      </c>
+      <c r="H979" t="n">
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>3</v>
+      </c>
+      <c r="J979" t="n">
+        <v>1</v>
+      </c>
+      <c r="K979" t="n">
+        <v>2</v>
+      </c>
+      <c r="L979" t="n">
+        <v>4</v>
+      </c>
+      <c r="M979" t="n">
+        <v>4</v>
+      </c>
+      <c r="N979" t="n">
+        <v>4</v>
+      </c>
+      <c r="O979" t="n">
+        <v>4</v>
+      </c>
+      <c r="P979" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>20240220</v>
+      </c>
+      <c r="C980" t="n">
+        <v>4</v>
+      </c>
+      <c r="D980" t="n">
+        <v>3</v>
+      </c>
+      <c r="E980" t="n">
+        <v>4</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1</v>
+      </c>
+      <c r="G980" t="n">
+        <v>2</v>
+      </c>
+      <c r="H980" t="n">
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>4</v>
+      </c>
+      <c r="J980" t="n">
+        <v>1</v>
+      </c>
+      <c r="K980" t="n">
+        <v>3</v>
+      </c>
+      <c r="L980" t="n">
+        <v>4</v>
+      </c>
+      <c r="M980" t="n">
+        <v>3</v>
+      </c>
+      <c r="N980" t="n">
+        <v>2</v>
+      </c>
+      <c r="O980" t="n">
+        <v>4</v>
+      </c>
+      <c r="P980" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
+        <v>20240221</v>
+      </c>
+      <c r="C981" t="n">
+        <v>4</v>
+      </c>
+      <c r="D981" t="n">
+        <v>4</v>
+      </c>
+      <c r="E981" t="n">
+        <v>4</v>
+      </c>
+      <c r="F981" t="n">
+        <v>2</v>
+      </c>
+      <c r="G981" t="n">
+        <v>1</v>
+      </c>
+      <c r="H981" t="n">
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>3</v>
+      </c>
+      <c r="J981" t="n">
+        <v>1</v>
+      </c>
+      <c r="K981" t="n">
+        <v>2</v>
+      </c>
+      <c r="L981" t="n">
+        <v>4</v>
+      </c>
+      <c r="M981" t="n">
+        <v>3</v>
+      </c>
+      <c r="N981" t="n">
+        <v>3</v>
+      </c>
+      <c r="O981" t="n">
+        <v>4</v>
+      </c>
+      <c r="P981" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="n">
+        <v>20240222</v>
+      </c>
+      <c r="C982" t="n">
+        <v>4</v>
+      </c>
+      <c r="D982" t="n">
+        <v>3</v>
+      </c>
+      <c r="E982" t="n">
+        <v>4</v>
+      </c>
+      <c r="F982" t="n">
+        <v>2</v>
+      </c>
+      <c r="G982" t="n">
+        <v>3</v>
+      </c>
+      <c r="H982" t="n">
+        <v>2</v>
+      </c>
+      <c r="I982" t="n">
+        <v>4</v>
+      </c>
+      <c r="J982" t="n">
+        <v>1</v>
+      </c>
+      <c r="K982" t="n">
+        <v>1</v>
+      </c>
+      <c r="L982" t="n">
+        <v>4</v>
+      </c>
+      <c r="M982" t="n">
+        <v>2</v>
+      </c>
+      <c r="N982" t="n">
+        <v>1</v>
+      </c>
+      <c r="O982" t="n">
+        <v>4</v>
+      </c>
+      <c r="P982" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="n">
+        <v>20240223</v>
+      </c>
+      <c r="C983" t="n">
+        <v>4</v>
+      </c>
+      <c r="D983" t="n">
+        <v>3</v>
+      </c>
+      <c r="E983" t="n">
+        <v>4</v>
+      </c>
+      <c r="F983" t="n">
+        <v>2</v>
+      </c>
+      <c r="G983" t="n">
+        <v>2</v>
+      </c>
+      <c r="H983" t="n">
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>4</v>
+      </c>
+      <c r="J983" t="n">
+        <v>2</v>
+      </c>
+      <c r="K983" t="n">
+        <v>1</v>
+      </c>
+      <c r="L983" t="n">
+        <v>4</v>
+      </c>
+      <c r="M983" t="n">
+        <v>3</v>
+      </c>
+      <c r="N983" t="n">
+        <v>1</v>
+      </c>
+      <c r="O983" t="n">
+        <v>4</v>
+      </c>
+      <c r="P983" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="n">
+        <v>20240226</v>
+      </c>
+      <c r="C984" t="n">
+        <v>4</v>
+      </c>
+      <c r="D984" t="n">
+        <v>3</v>
+      </c>
+      <c r="E984" t="n">
+        <v>4</v>
+      </c>
+      <c r="F984" t="n">
+        <v>1</v>
+      </c>
+      <c r="G984" t="n">
+        <v>2</v>
+      </c>
+      <c r="H984" t="n">
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>3</v>
+      </c>
+      <c r="J984" t="n">
+        <v>2</v>
+      </c>
+      <c r="K984" t="n">
+        <v>1</v>
+      </c>
+      <c r="L984" t="n">
+        <v>4</v>
+      </c>
+      <c r="M984" t="n">
+        <v>3</v>
+      </c>
+      <c r="N984" t="n">
+        <v>2</v>
+      </c>
+      <c r="O984" t="n">
+        <v>4</v>
+      </c>
+      <c r="P984" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="n">
+        <v>20240227</v>
+      </c>
+      <c r="C985" t="n">
+        <v>4</v>
+      </c>
+      <c r="D985" t="n">
+        <v>4</v>
+      </c>
+      <c r="E985" t="n">
+        <v>4</v>
+      </c>
+      <c r="F985" t="n">
+        <v>2</v>
+      </c>
+      <c r="G985" t="n">
+        <v>1</v>
+      </c>
+      <c r="H985" t="n">
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>3</v>
+      </c>
+      <c r="J985" t="n">
+        <v>2</v>
+      </c>
+      <c r="K985" t="n">
+        <v>2</v>
+      </c>
+      <c r="L985" t="n">
+        <v>4</v>
+      </c>
+      <c r="M985" t="n">
+        <v>1</v>
+      </c>
+      <c r="N985" t="n">
+        <v>3</v>
+      </c>
+      <c r="O985" t="n">
+        <v>4</v>
+      </c>
+      <c r="P985" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="n">
+        <v>20240228</v>
+      </c>
+      <c r="C986" t="n">
+        <v>4</v>
+      </c>
+      <c r="D986" t="n">
+        <v>4</v>
+      </c>
+      <c r="E986" t="n">
+        <v>4</v>
+      </c>
+      <c r="F986" t="n">
+        <v>2</v>
+      </c>
+      <c r="G986" t="n">
+        <v>1</v>
+      </c>
+      <c r="H986" t="n">
+        <v>2</v>
+      </c>
+      <c r="I986" t="n">
+        <v>3</v>
+      </c>
+      <c r="J986" t="n">
+        <v>3</v>
+      </c>
+      <c r="K986" t="n">
+        <v>1</v>
+      </c>
+      <c r="L986" t="n">
+        <v>4</v>
+      </c>
+      <c r="M986" t="n">
+        <v>1</v>
+      </c>
+      <c r="N986" t="n">
+        <v>2</v>
+      </c>
+      <c r="O986" t="n">
+        <v>4</v>
+      </c>
+      <c r="P986" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>20240229</v>
+      </c>
+      <c r="C987" t="n">
+        <v>4</v>
+      </c>
+      <c r="D987" t="n">
+        <v>3</v>
+      </c>
+      <c r="E987" t="n">
+        <v>4</v>
+      </c>
+      <c r="F987" t="n">
+        <v>1</v>
+      </c>
+      <c r="G987" t="n">
+        <v>2</v>
+      </c>
+      <c r="H987" t="n">
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>4</v>
+      </c>
+      <c r="J987" t="n">
+        <v>3</v>
+      </c>
+      <c r="K987" t="n">
+        <v>1</v>
+      </c>
+      <c r="L987" t="n">
+        <v>4</v>
+      </c>
+      <c r="M987" t="n">
+        <v>2</v>
+      </c>
+      <c r="N987" t="n">
+        <v>2</v>
+      </c>
+      <c r="O987" t="n">
+        <v>4</v>
+      </c>
+      <c r="P987" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>20240301</v>
+      </c>
+      <c r="C988" t="n">
+        <v>4</v>
+      </c>
+      <c r="D988" t="n">
+        <v>3</v>
+      </c>
+      <c r="E988" t="n">
+        <v>4</v>
+      </c>
+      <c r="F988" t="n">
+        <v>2</v>
+      </c>
+      <c r="G988" t="n">
+        <v>2</v>
+      </c>
+      <c r="H988" t="n">
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>4</v>
+      </c>
+      <c r="J988" t="n">
+        <v>3</v>
+      </c>
+      <c r="K988" t="n">
+        <v>1</v>
+      </c>
+      <c r="L988" t="n">
+        <v>4</v>
+      </c>
+      <c r="M988" t="n">
+        <v>1</v>
+      </c>
+      <c r="N988" t="n">
+        <v>2</v>
+      </c>
+      <c r="O988" t="n">
+        <v>4</v>
+      </c>
+      <c r="P988" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>20240304</v>
+      </c>
+      <c r="C989" t="n">
+        <v>4</v>
+      </c>
+      <c r="D989" t="n">
+        <v>4</v>
+      </c>
+      <c r="E989" t="n">
+        <v>4</v>
+      </c>
+      <c r="F989" t="n">
+        <v>1</v>
+      </c>
+      <c r="G989" t="n">
+        <v>2</v>
+      </c>
+      <c r="H989" t="n">
+        <v>2</v>
+      </c>
+      <c r="I989" t="n">
+        <v>4</v>
+      </c>
+      <c r="J989" t="n">
+        <v>3</v>
+      </c>
+      <c r="K989" t="n">
+        <v>1</v>
+      </c>
+      <c r="L989" t="n">
+        <v>4</v>
+      </c>
+      <c r="M989" t="n">
+        <v>1</v>
+      </c>
+      <c r="N989" t="n">
+        <v>2</v>
+      </c>
+      <c r="O989" t="n">
+        <v>3</v>
+      </c>
+      <c r="P989" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>20240305</v>
+      </c>
+      <c r="C990" t="n">
+        <v>4</v>
+      </c>
+      <c r="D990" t="n">
+        <v>4</v>
+      </c>
+      <c r="E990" t="n">
+        <v>4</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1</v>
+      </c>
+      <c r="G990" t="n">
+        <v>2</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2</v>
+      </c>
+      <c r="I990" t="n">
+        <v>4</v>
+      </c>
+      <c r="J990" t="n">
+        <v>3</v>
+      </c>
+      <c r="K990" t="n">
+        <v>1</v>
+      </c>
+      <c r="L990" t="n">
+        <v>4</v>
+      </c>
+      <c r="M990" t="n">
+        <v>1</v>
+      </c>
+      <c r="N990" t="n">
+        <v>2</v>
+      </c>
+      <c r="O990" t="n">
+        <v>3</v>
+      </c>
+      <c r="P990" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>20240306</v>
+      </c>
+      <c r="C991" t="n">
+        <v>4</v>
+      </c>
+      <c r="D991" t="n">
+        <v>3</v>
+      </c>
+      <c r="E991" t="n">
+        <v>4</v>
+      </c>
+      <c r="F991" t="n">
+        <v>2</v>
+      </c>
+      <c r="G991" t="n">
+        <v>3</v>
+      </c>
+      <c r="H991" t="n">
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>4</v>
+      </c>
+      <c r="J991" t="n">
+        <v>3</v>
+      </c>
+      <c r="K991" t="n">
+        <v>1</v>
+      </c>
+      <c r="L991" t="n">
+        <v>4</v>
+      </c>
+      <c r="M991" t="n">
+        <v>1</v>
+      </c>
+      <c r="N991" t="n">
+        <v>2</v>
+      </c>
+      <c r="O991" t="n">
+        <v>4</v>
+      </c>
+      <c r="P991" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>20240307</v>
+      </c>
+      <c r="C992" t="n">
+        <v>4</v>
+      </c>
+      <c r="D992" t="n">
+        <v>4</v>
+      </c>
+      <c r="E992" t="n">
+        <v>4</v>
+      </c>
+      <c r="F992" t="n">
+        <v>3</v>
+      </c>
+      <c r="G992" t="n">
+        <v>4</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2</v>
+      </c>
+      <c r="I992" t="n">
+        <v>4</v>
+      </c>
+      <c r="J992" t="n">
+        <v>3</v>
+      </c>
+      <c r="K992" t="n">
+        <v>1</v>
+      </c>
+      <c r="L992" t="n">
+        <v>2</v>
+      </c>
+      <c r="M992" t="n">
+        <v>1</v>
+      </c>
+      <c r="N992" t="n">
+        <v>1</v>
+      </c>
+      <c r="O992" t="n">
+        <v>4</v>
+      </c>
+      <c r="P992" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>20240308</v>
+      </c>
+      <c r="C993" t="n">
+        <v>4</v>
+      </c>
+      <c r="D993" t="n">
+        <v>4</v>
+      </c>
+      <c r="E993" t="n">
+        <v>4</v>
+      </c>
+      <c r="F993" t="n">
+        <v>2</v>
+      </c>
+      <c r="G993" t="n">
+        <v>4</v>
+      </c>
+      <c r="H993" t="n">
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>3</v>
+      </c>
+      <c r="J993" t="n">
+        <v>2</v>
+      </c>
+      <c r="K993" t="n">
+        <v>1</v>
+      </c>
+      <c r="L993" t="n">
+        <v>3</v>
+      </c>
+      <c r="M993" t="n">
+        <v>1</v>
+      </c>
+      <c r="N993" t="n">
+        <v>2</v>
+      </c>
+      <c r="O993" t="n">
+        <v>4</v>
+      </c>
+      <c r="P993" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>20240311</v>
+      </c>
+      <c r="C994" t="n">
+        <v>4</v>
+      </c>
+      <c r="D994" t="n">
+        <v>3</v>
+      </c>
+      <c r="E994" t="n">
+        <v>4</v>
+      </c>
+      <c r="F994" t="n">
+        <v>1</v>
+      </c>
+      <c r="G994" t="n">
+        <v>2</v>
+      </c>
+      <c r="H994" t="n">
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>4</v>
+      </c>
+      <c r="J994" t="n">
+        <v>2</v>
+      </c>
+      <c r="K994" t="n">
+        <v>2</v>
+      </c>
+      <c r="L994" t="n">
+        <v>4</v>
+      </c>
+      <c r="M994" t="n">
+        <v>3</v>
+      </c>
+      <c r="N994" t="n">
+        <v>1</v>
+      </c>
+      <c r="O994" t="n">
+        <v>4</v>
+      </c>
+      <c r="P994" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>20240312</v>
+      </c>
+      <c r="C995" t="n">
+        <v>4</v>
+      </c>
+      <c r="D995" t="n">
+        <v>3</v>
+      </c>
+      <c r="E995" t="n">
+        <v>4</v>
+      </c>
+      <c r="F995" t="n">
+        <v>3</v>
+      </c>
+      <c r="G995" t="n">
+        <v>1</v>
+      </c>
+      <c r="H995" t="n">
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>3</v>
+      </c>
+      <c r="J995" t="n">
+        <v>2</v>
+      </c>
+      <c r="K995" t="n">
+        <v>2</v>
+      </c>
+      <c r="L995" t="n">
+        <v>4</v>
+      </c>
+      <c r="M995" t="n">
+        <v>2</v>
+      </c>
+      <c r="N995" t="n">
+        <v>1</v>
+      </c>
+      <c r="O995" t="n">
+        <v>4</v>
+      </c>
+      <c r="P995" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>20240313</v>
+      </c>
+      <c r="C996" t="n">
+        <v>4</v>
+      </c>
+      <c r="D996" t="n">
+        <v>3</v>
+      </c>
+      <c r="E996" t="n">
+        <v>4</v>
+      </c>
+      <c r="F996" t="n">
+        <v>2</v>
+      </c>
+      <c r="G996" t="n">
+        <v>2</v>
+      </c>
+      <c r="H996" t="n">
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>4</v>
+      </c>
+      <c r="J996" t="n">
+        <v>2</v>
+      </c>
+      <c r="K996" t="n">
+        <v>1</v>
+      </c>
+      <c r="L996" t="n">
+        <v>4</v>
+      </c>
+      <c r="M996" t="n">
+        <v>1</v>
+      </c>
+      <c r="N996" t="n">
+        <v>3</v>
+      </c>
+      <c r="O996" t="n">
+        <v>4</v>
+      </c>
+      <c r="P996" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>20240314</v>
+      </c>
+      <c r="C997" t="n">
+        <v>3</v>
+      </c>
+      <c r="D997" t="n">
+        <v>2</v>
+      </c>
+      <c r="E997" t="n">
+        <v>4</v>
+      </c>
+      <c r="F997" t="n">
+        <v>4</v>
+      </c>
+      <c r="G997" t="n">
+        <v>2</v>
+      </c>
+      <c r="H997" t="n">
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>2</v>
+      </c>
+      <c r="J997" t="n">
+        <v>1</v>
+      </c>
+      <c r="K997" t="n">
+        <v>1</v>
+      </c>
+      <c r="L997" t="n">
+        <v>4</v>
+      </c>
+      <c r="M997" t="n">
+        <v>3</v>
+      </c>
+      <c r="N997" t="n">
+        <v>4</v>
+      </c>
+      <c r="O997" t="n">
+        <v>4</v>
+      </c>
+      <c r="P997" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>20240315</v>
+      </c>
+      <c r="C998" t="n">
+        <v>4</v>
+      </c>
+      <c r="D998" t="n">
+        <v>3</v>
+      </c>
+      <c r="E998" t="n">
+        <v>4</v>
+      </c>
+      <c r="F998" t="n">
+        <v>3</v>
+      </c>
+      <c r="G998" t="n">
+        <v>2</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2</v>
+      </c>
+      <c r="I998" t="n">
+        <v>2</v>
+      </c>
+      <c r="J998" t="n">
+        <v>1</v>
+      </c>
+      <c r="K998" t="n">
+        <v>1</v>
+      </c>
+      <c r="L998" t="n">
+        <v>4</v>
+      </c>
+      <c r="M998" t="n">
+        <v>1</v>
+      </c>
+      <c r="N998" t="n">
+        <v>4</v>
+      </c>
+      <c r="O998" t="n">
+        <v>4</v>
+      </c>
+      <c r="P998" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>20240318</v>
+      </c>
+      <c r="C999" t="n">
+        <v>4</v>
+      </c>
+      <c r="D999" t="n">
+        <v>3</v>
+      </c>
+      <c r="E999" t="n">
+        <v>4</v>
+      </c>
+      <c r="F999" t="n">
+        <v>2</v>
+      </c>
+      <c r="G999" t="n">
+        <v>3</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2</v>
+      </c>
+      <c r="I999" t="n">
+        <v>3</v>
+      </c>
+      <c r="J999" t="n">
+        <v>1</v>
+      </c>
+      <c r="K999" t="n">
+        <v>1</v>
+      </c>
+      <c r="L999" t="n">
+        <v>4</v>
+      </c>
+      <c r="M999" t="n">
+        <v>1</v>
+      </c>
+      <c r="N999" t="n">
+        <v>4</v>
+      </c>
+      <c r="O999" t="n">
+        <v>4</v>
+      </c>
+      <c r="P999" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>20240319</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>20240320</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>20240321</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>20240322</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>20240325</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>20240327</v>
+      </c>
+      <c r="C1005" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D952" t="inlineStr">
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E952" t="inlineStr">
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J1005" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K1005" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F952" t="inlineStr">
+      <c r="L1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1005" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N1005" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O1005" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G952" t="inlineStr">
+      <c r="P1005" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q1005" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H952" t="inlineStr">
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>20240328</v>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I952" t="inlineStr">
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J1006" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J952" t="inlineStr">
+      <c r="K1006" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K952" t="inlineStr">
+      <c r="L1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1006" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O952" t="inlineStr">
+      <c r="N1006" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P952" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B953" t="n">
-        <v>20240104</v>
-      </c>
-      <c r="C953" t="n">
-        <v>4</v>
-      </c>
-      <c r="D953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E953" t="inlineStr">
+      <c r="O1006" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F953" t="inlineStr">
+      <c r="P1006" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I953" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M953" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O953" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P953" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B954" t="n">
-        <v>20240105</v>
-      </c>
-      <c r="C954" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D954" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E954" t="n">
-        <v>4</v>
-      </c>
-      <c r="F954" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G954" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I954" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M954" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N954" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O954" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P954" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q954" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B955" t="n">
-        <v>20240108</v>
-      </c>
-      <c r="C955" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D955" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I955" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M955" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N955" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O955" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P955" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B956" t="n">
-        <v>20240109</v>
-      </c>
-      <c r="C956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D956" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F956" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J956" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L956" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M956" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N956" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O956" t="n">
-        <v>4</v>
-      </c>
-      <c r="P956" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q956" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B957" t="n">
-        <v>20240110</v>
-      </c>
-      <c r="C957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E957" t="n">
-        <v>4</v>
-      </c>
-      <c r="F957" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I957" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J957" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L957" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M957" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N957" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O957" t="n">
-        <v>4</v>
-      </c>
-      <c r="P957" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q957" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B958" t="n">
-        <v>20240111</v>
-      </c>
-      <c r="C958" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D958" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F958" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J958" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L958" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N958" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O958" t="n">
-        <v>4</v>
-      </c>
-      <c r="P958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B959" t="n">
-        <v>20240112</v>
-      </c>
-      <c r="C959" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D959" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I959" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J959" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L959" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N959" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O959" t="n">
-        <v>4</v>
-      </c>
-      <c r="P959" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q959" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B960" t="n">
-        <v>20240115</v>
-      </c>
-      <c r="C960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E960" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F960" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L960" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M960" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O960" t="n">
-        <v>4</v>
-      </c>
-      <c r="P960" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B961" t="n">
-        <v>20240116</v>
-      </c>
-      <c r="C961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D961" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F961" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L961" t="n">
-        <v>4</v>
-      </c>
-      <c r="M961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O961" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P961" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q961" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B962" t="n">
-        <v>20240117</v>
-      </c>
-      <c r="C962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E962" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F962" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L962" t="n">
-        <v>4</v>
-      </c>
-      <c r="M962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O962" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P962" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B963" t="n">
-        <v>20240118</v>
-      </c>
-      <c r="C963" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D963" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E963" t="n">
-        <v>4</v>
-      </c>
-      <c r="F963" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L963" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O963" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q963" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B964" t="n">
-        <v>20240119</v>
-      </c>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D964" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L964" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O964" t="n">
-        <v>4</v>
-      </c>
-      <c r="P964" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q964" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B965" t="n">
-        <v>20240122</v>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F965" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L965" t="n">
-        <v>4</v>
-      </c>
-      <c r="M965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P965" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q965" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B966" t="n">
-        <v>20240123</v>
-      </c>
-      <c r="C966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E966" t="n">
-        <v>4</v>
-      </c>
-      <c r="F966" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L966" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O966" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P966" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q966" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B967" t="n">
-        <v>20240124</v>
-      </c>
-      <c r="C967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E967" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F967" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I967" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L967" t="n">
-        <v>4</v>
-      </c>
-      <c r="M967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P967" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q967" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B968" t="n">
-        <v>20240125</v>
-      </c>
-      <c r="C968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E968" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F968" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I968" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L968" t="n">
-        <v>4</v>
-      </c>
-      <c r="M968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O968" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P968" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B969" t="n">
-        <v>20240126</v>
-      </c>
-      <c r="C969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D969" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E969" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F969" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L969" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O969" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P969" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B970" t="n">
-        <v>20240129</v>
-      </c>
-      <c r="C970" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D970" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E970" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F970" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J970" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L970" t="n">
-        <v>4</v>
-      </c>
-      <c r="M970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P970" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B971" t="n">
-        <v>20240130</v>
-      </c>
-      <c r="C971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D971" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E971" t="n">
-        <v>4</v>
-      </c>
-      <c r="F971" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I971" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J971" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L971" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N971" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O971" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P971" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B972" t="n">
-        <v>20240131</v>
-      </c>
-      <c r="C972" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F972" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L972" t="n">
-        <v>4</v>
-      </c>
-      <c r="M972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O972" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P972" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B973" t="n">
-        <v>20240201</v>
-      </c>
-      <c r="C973" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D973" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E973" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I973" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J973" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L973" t="n">
-        <v>4</v>
-      </c>
-      <c r="M973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N973" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P973" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q973" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B974" t="n">
-        <v>20240202</v>
-      </c>
-      <c r="C974" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D974" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E974" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I974" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L974" t="n">
-        <v>4</v>
-      </c>
-      <c r="M974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P974" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B975" t="n">
-        <v>20240205</v>
-      </c>
-      <c r="C975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D975" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I975" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L975" t="n">
-        <v>4</v>
-      </c>
-      <c r="M975" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P975" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q975" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B976" t="n">
-        <v>20240206</v>
-      </c>
-      <c r="C976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E976" t="n">
-        <v>4</v>
-      </c>
-      <c r="F976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I976" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L976" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M976" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N976" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O976" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P976" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q976" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B977" t="n">
-        <v>20240207</v>
-      </c>
-      <c r="C977" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D977" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I977" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J977" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L977" t="n">
-        <v>4</v>
-      </c>
-      <c r="M977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O977" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P977" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B978" t="n">
-        <v>20240208</v>
-      </c>
-      <c r="C978" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E978" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F978" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J978" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L978" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O978" t="n">
-        <v>4</v>
-      </c>
-      <c r="P978" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B979" t="n">
-        <v>20240219</v>
-      </c>
-      <c r="C979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J979" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L979" t="n">
-        <v>4</v>
-      </c>
-      <c r="M979" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N979" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O979" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P979" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B980" t="n">
-        <v>20240220</v>
-      </c>
-      <c r="C980" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E980" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F980" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I980" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J980" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L980" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O980" t="n">
-        <v>4</v>
-      </c>
-      <c r="P980" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B981" t="n">
-        <v>20240221</v>
-      </c>
-      <c r="C981" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D981" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G981" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J981" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L981" t="n">
-        <v>4</v>
-      </c>
-      <c r="M981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O981" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P981" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B982" t="n">
-        <v>20240222</v>
-      </c>
-      <c r="C982" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E982" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I982" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J982" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L982" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N982" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O982" t="n">
-        <v>4</v>
-      </c>
-      <c r="P982" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B983" t="n">
-        <v>20240223</v>
-      </c>
-      <c r="C983" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E983" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I983" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L983" t="n">
-        <v>4</v>
-      </c>
-      <c r="M983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N983" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O983" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P983" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B984" t="n">
-        <v>20240226</v>
-      </c>
-      <c r="C984" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E984" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F984" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L984" t="n">
-        <v>4</v>
-      </c>
-      <c r="M984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O984" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P984" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q984" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B985" t="n">
-        <v>20240227</v>
-      </c>
-      <c r="C985" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D985" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E985" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F985" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J985" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L985" t="n">
-        <v>4</v>
-      </c>
-      <c r="M985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O985" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P985" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B986" t="n">
-        <v>20240228</v>
-      </c>
-      <c r="C986" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D986" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L986" t="n">
-        <v>4</v>
-      </c>
-      <c r="M986" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N986" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O986" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P986" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B987" t="n">
-        <v>20240229</v>
-      </c>
-      <c r="C987" t="n">
-        <v>4</v>
-      </c>
-      <c r="D987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I987" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L987" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M987" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N987" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O987" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P987" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B988" t="n">
-        <v>20240301</v>
-      </c>
-      <c r="C988" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I988" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L988" t="n">
-        <v>4</v>
-      </c>
-      <c r="M988" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O988" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P988" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B989" t="n">
-        <v>20240304</v>
-      </c>
-      <c r="C989" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D989" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E989" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I989" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L989" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P989" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B990" t="n">
-        <v>20240305</v>
-      </c>
-      <c r="C990" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D990" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E990" t="n">
-        <v>4</v>
-      </c>
-      <c r="F990" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I990" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L990" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M990" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P990" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B991" t="n">
-        <v>20240306</v>
-      </c>
-      <c r="C991" t="n">
-        <v>4</v>
-      </c>
-      <c r="D991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I991" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L991" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O991" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P991" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B992" t="n">
-        <v>20240307</v>
-      </c>
-      <c r="C992" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D992" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E992" t="n">
-        <v>4</v>
-      </c>
-      <c r="F992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I992" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M992" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N992" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O992" t="n">
-        <v>4</v>
-      </c>
-      <c r="P992" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B993" t="n">
-        <v>20240308</v>
-      </c>
-      <c r="C993" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D993" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E993" t="n">
-        <v>4</v>
-      </c>
-      <c r="F993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M993" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O993" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P993" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B994" t="n">
-        <v>20240311</v>
-      </c>
-      <c r="C994" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E994" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I994" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L994" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O994" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P994" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B995" t="n">
-        <v>20240312</v>
-      </c>
-      <c r="C995" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E995" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L995" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N995" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O995" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P995" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q995" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B996" t="n">
-        <v>20240313</v>
-      </c>
-      <c r="C996" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E996" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I996" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>4</v>
-      </c>
-      <c r="M996" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O996" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P996" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B997" t="n">
-        <v>20240314</v>
-      </c>
-      <c r="C997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F997" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J997" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>4</v>
-      </c>
-      <c r="M997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N997" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O997" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P997" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B998" t="n">
-        <v>20240315</v>
-      </c>
-      <c r="C998" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J998" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>4</v>
-      </c>
-      <c r="M998" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N998" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O998" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P998" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B999" t="n">
-        <v>20240318</v>
-      </c>
-      <c r="C999" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J999" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>4</v>
-      </c>
-      <c r="M999" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N999" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O999" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P999" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>20240319</v>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1000" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L1000" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M1000" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1000" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O1000" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1000" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>20240320</v>
-      </c>
-      <c r="C1001" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D1001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1001" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L1001" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M1001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O1001" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1001" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>20240321</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>4</v>
-      </c>
-      <c r="D1002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L1002" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M1002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O1002" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1002" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1002" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>20240322</v>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J1003" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L1003" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M1003" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O1003" t="n">
-        <v>4</v>
-      </c>
-      <c r="P1003" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>20240325</v>
-      </c>
-      <c r="C1004" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I1004" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L1004" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1004" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O1004" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1004" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q1004" t="inlineStr">
+      <c r="Q1006" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/风格.xlsx
+++ b/风格.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1006"/>
+  <dimension ref="A1:Q1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53676,163 +53676,239 @@
     </row>
     <row r="1005">
       <c r="A1005" s="1" t="n">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="B1005" t="n">
         <v>20240327</v>
       </c>
-      <c r="C1005" t="inlineStr">
+      <c r="C1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>20240328</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>20240401</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>2</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>20240402</v>
+      </c>
+      <c r="C1008" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D1005" t="inlineStr">
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E1005" t="inlineStr">
+      <c r="H1008" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F1005" t="inlineStr">
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J1008" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1008" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G1005" t="inlineStr">
+      <c r="N1008" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I1005" t="inlineStr">
+      <c r="O1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1008" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J1005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K1005" t="inlineStr">
+      <c r="Q1008" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O1005" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1005" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>20240328</v>
-      </c>
-      <c r="C1006" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F1006" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1006" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O1006" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1006" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1006" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/风格.xlsx
+++ b/风格.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1008"/>
+  <dimension ref="A1:Q1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53835,80 +53835,216 @@
     </row>
     <row r="1008">
       <c r="A1008" s="1" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="B1008" t="n">
         <v>20240402</v>
       </c>
-      <c r="C1008" t="inlineStr">
+      <c r="C1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>20240403</v>
+      </c>
+      <c r="C1009" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D1008" t="inlineStr">
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J1009" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E1008" t="inlineStr">
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1009" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N1009" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O1009" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F1008" t="inlineStr">
+      <c r="P1009" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G1008" t="inlineStr">
+      <c r="Q1009" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>20240408</v>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G1010" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
+      <c r="H1010" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I1008" t="inlineStr">
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J1010" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J1008" t="inlineStr">
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1010" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O1008" t="n">
-        <v>4</v>
-      </c>
-      <c r="P1008" t="inlineStr">
+      <c r="N1010" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q1008" t="inlineStr">
+      <c r="O1010" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="P1010" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q1010" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/风格.xlsx
+++ b/风格.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1010"/>
+  <dimension ref="A1:Q1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53888,161 +53888,822 @@
     </row>
     <row r="1009">
       <c r="A1009" s="1" t="n">
-        <v>1</v>
+        <v>1007</v>
       </c>
       <c r="B1009" t="n">
         <v>20240403</v>
       </c>
-      <c r="C1009" t="inlineStr">
+      <c r="C1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>20240408</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>20240409</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>20240410</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>20240411</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>2</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>20240412</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>3</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>20240415</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>20240416</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>20240417</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>20240418</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>20240419</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>20240422</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>20240423</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>20240424</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>20240425</v>
+      </c>
+      <c r="C1023" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D1009" t="inlineStr">
+      <c r="D1023" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E1009" t="inlineStr">
+      <c r="E1023" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F1009" t="inlineStr">
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1023" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G1009" t="inlineStr">
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K1023" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
+      <c r="L1023" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I1009" t="inlineStr">
+      <c r="M1023" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1009" t="inlineStr">
+      <c r="N1023" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N1009" t="inlineStr">
+      <c r="O1023" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1023" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O1009" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1009" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>20240408</v>
-      </c>
-      <c r="C1010" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O1010" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P1010" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q1010" t="inlineStr">
+      <c r="Q1023" t="inlineStr">
         <is>
           <t>2</t>
         </is>
